--- a/Template/instructor.xlsx
+++ b/Template/instructor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testname" sheetId="16" r:id="rId1"/>
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
